--- a/CASUAL/LA DSWD-CCR/OCAMPO, NOVELYN URAM.xlsx
+++ b/CASUAL/LA DSWD-CCR/OCAMPO, NOVELYN URAM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="102">
   <si>
     <t>PERIOD</t>
   </si>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t>11/23,24/2023</t>
+  </si>
+  <si>
+    <t>01/08-10/2024</t>
   </si>
 </sst>
 </file>
@@ -729,14 +732,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -746,9 +752,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1638,9 +1641,9 @@
   </sheetPr>
   <dimension ref="A2:K100"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A77" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="K87" sqref="K87"/>
+      <selection pane="bottomLeft" activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1670,14 +1673,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1688,16 +1691,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="57">
         <v>40756</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1710,14 +1713,14 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1743,18 +1746,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1801,7 +1804,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table14[EARNED])-SUM(Table14[Absence Undertime W/ Pay])</f>
-        <v>62.5</v>
+        <v>62</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1811,7 +1814,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table14[[EARNED ]])-SUM(Table14[Absence Undertime  W/ Pay])</f>
-        <v>83.5</v>
+        <v>86</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3437,13 +3440,15 @@
       <c r="B87" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C87" s="50"/>
+      <c r="C87" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="51"/>
       <c r="E87" s="10"/>
       <c r="F87" s="16"/>
-      <c r="G87" s="50" t="str">
-        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="50">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="51">
         <v>2</v>
@@ -3459,13 +3464,15 @@
         <v>45261</v>
       </c>
       <c r="B88" s="21"/>
-      <c r="C88" s="14"/>
+      <c r="C88" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="48"/>
       <c r="E88" s="9"/>
       <c r="F88" s="21"/>
-      <c r="G88" s="14" t="str">
-        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G88" s="14">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H88" s="48"/>
       <c r="I88" s="9"/>
@@ -3494,9 +3501,13 @@
       <c r="A90" s="47">
         <v>45292</v>
       </c>
-      <c r="B90" s="21"/>
+      <c r="B90" s="21" t="s">
+        <v>81</v>
+      </c>
       <c r="C90" s="14"/>
-      <c r="D90" s="48"/>
+      <c r="D90" s="48">
+        <v>3</v>
+      </c>
       <c r="E90" s="9"/>
       <c r="F90" s="21"/>
       <c r="G90" s="14" t="str">
@@ -3506,7 +3517,9 @@
       <c r="H90" s="48"/>
       <c r="I90" s="9"/>
       <c r="J90" s="12"/>
-      <c r="K90" s="21"/>
+      <c r="K90" s="21" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="47">
@@ -3690,17 +3703,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3735,7 +3748,7 @@
   </sheetPr>
   <dimension ref="A2:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
       <selection pane="bottomLeft" activeCell="K77" sqref="K77"/>
@@ -3768,14 +3781,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3786,16 +3799,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="57">
         <v>40756</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3808,16 +3821,16 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3843,18 +3856,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/CASUAL/LA DSWD-CCR/OCAMPO, NOVELYN URAM.xlsx
+++ b/CASUAL/LA DSWD-CCR/OCAMPO, NOVELYN URAM.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="103">
   <si>
     <t>PERIOD</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t>01/08-10/2024</t>
+  </si>
+  <si>
+    <t>1/11,16,17/2024</t>
   </si>
 </sst>
 </file>
@@ -732,17 +735,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -752,6 +752,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1280,7 +1283,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A8:K100" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A8:K101" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -1639,11 +1642,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K100"/>
+  <dimension ref="A2:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A77" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="G95" sqref="G95"/>
+      <selection pane="bottomLeft" activeCell="K91" sqref="K91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,14 +1676,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1691,16 +1694,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="56">
         <v>40756</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1713,14 +1716,14 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1746,18 +1749,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1814,7 +1817,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table14[[EARNED ]])-SUM(Table14[Absence Undertime  W/ Pay])</f>
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3522,10 +3525,10 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="47">
-        <v>45323</v>
-      </c>
-      <c r="B91" s="21"/>
+      <c r="A91" s="47"/>
+      <c r="B91" s="21" t="s">
+        <v>56</v>
+      </c>
       <c r="C91" s="14"/>
       <c r="D91" s="48"/>
       <c r="E91" s="9"/>
@@ -3534,14 +3537,18 @@
         <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H91" s="48"/>
+      <c r="H91" s="48">
+        <v>3</v>
+      </c>
       <c r="I91" s="9"/>
       <c r="J91" s="12"/>
-      <c r="K91" s="21"/>
+      <c r="K91" s="21" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="47">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B92" s="21"/>
       <c r="C92" s="14"/>
@@ -3559,7 +3566,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="47">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B93" s="21"/>
       <c r="C93" s="14"/>
@@ -3577,7 +3584,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="47">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B94" s="21"/>
       <c r="C94" s="14"/>
@@ -3595,7 +3602,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="47">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B95" s="21"/>
       <c r="C95" s="14"/>
@@ -3613,7 +3620,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="47">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B96" s="21"/>
       <c r="C96" s="14"/>
@@ -3631,7 +3638,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="47">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B97" s="21"/>
       <c r="C97" s="14"/>
@@ -3649,7 +3656,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="47">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B98" s="21"/>
       <c r="C98" s="14"/>
@@ -3667,7 +3674,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="47">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B99" s="21"/>
       <c r="C99" s="14"/>
@@ -3685,7 +3692,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="47">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B100" s="21"/>
       <c r="C100" s="14"/>
@@ -3701,19 +3708,37 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="47">
+        <v>45597</v>
+      </c>
+      <c r="B101" s="21"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="48"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="14" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H101" s="48"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="21"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3781,14 +3806,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3799,16 +3824,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="56">
         <v>40756</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3821,16 +3846,16 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3856,18 +3881,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/CASUAL/LA DSWD-CCR/OCAMPO, NOVELYN URAM.xlsx
+++ b/CASUAL/LA DSWD-CCR/OCAMPO, NOVELYN URAM.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA DSWD-CCR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA DSWD-CCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFD7784-3B03-4ED1-925E-AEC338837391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="5" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="103">
   <si>
     <t>PERIOD</t>
   </si>
@@ -350,7 +351,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -735,14 +736,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -752,9 +756,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1266,7 +1267,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1283,25 +1284,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A8:K101" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table14" displayName="Table14" ref="A8:K102" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table14[EARNED])-SUM(Table14[Absence Undertime W/ Pay])+#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table14[[EARNED ]])-SUM(Table14[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1313,25 +1314,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K81" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K81" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1638,33 +1639,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K101"/>
+  <dimension ref="A2:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A77" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="K91" sqref="K91"/>
+      <pane ySplit="3696" topLeftCell="A85" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1676,16 +1677,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1694,18 +1695,18 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="57">
         <v>40756</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1716,16 +1717,16 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1733,7 +1734,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -1746,24 +1747,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1798,7 +1799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1807,7 +1808,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table14[EARNED])-SUM(Table14[Absence Undertime W/ Pay])</f>
-        <v>62</v>
+        <v>63.25</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1817,12 +1818,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table14[[EARNED ]])-SUM(Table14[Absence Undertime  W/ Pay])</f>
-        <v>83</v>
+        <v>84.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>48</v>
       </c>
@@ -1844,7 +1845,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>43101</v>
       </c>
@@ -1864,7 +1865,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <f>EDATE(A11,1)</f>
         <v>43132</v>
@@ -1885,7 +1886,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <f t="shared" ref="A13:A61" si="0">EDATE(A12,1)</f>
         <v>43160</v>
@@ -1906,7 +1907,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <f t="shared" si="0"/>
         <v>43191</v>
@@ -1927,7 +1928,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <f t="shared" si="0"/>
         <v>43221</v>
@@ -1948,7 +1949,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <f t="shared" si="0"/>
         <v>43252</v>
@@ -1969,7 +1970,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <f t="shared" si="0"/>
         <v>43282</v>
@@ -1990,7 +1991,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <f t="shared" si="0"/>
         <v>43313</v>
@@ -2011,7 +2012,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="39"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <f t="shared" si="0"/>
         <v>43344</v>
@@ -2032,7 +2033,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <f t="shared" si="0"/>
         <v>43374</v>
@@ -2053,7 +2054,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <f t="shared" si="0"/>
         <v>43405</v>
@@ -2074,7 +2075,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="39"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <f t="shared" si="0"/>
         <v>43435</v>
@@ -2099,7 +2100,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="39"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="38" t="s">
         <v>51</v>
       </c>
@@ -2117,7 +2118,7 @@
       <c r="J23" s="13"/>
       <c r="K23" s="46"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <f>EDATE(A22,1)</f>
         <v>43466</v>
@@ -2138,7 +2139,7 @@
       <c r="J24" s="13"/>
       <c r="K24" s="46"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="24">
         <f t="shared" si="0"/>
         <v>43497</v>
@@ -2159,7 +2160,7 @@
       <c r="J25" s="13"/>
       <c r="K25" s="46"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <f t="shared" si="0"/>
         <v>43525</v>
@@ -2180,7 +2181,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <f t="shared" si="0"/>
         <v>43556</v>
@@ -2201,7 +2202,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <f t="shared" si="0"/>
         <v>43586</v>
@@ -2222,7 +2223,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <f t="shared" si="0"/>
         <v>43617</v>
@@ -2243,7 +2244,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="24">
         <f t="shared" si="0"/>
         <v>43647</v>
@@ -2264,7 +2265,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="24">
         <f t="shared" si="0"/>
         <v>43678</v>
@@ -2285,7 +2286,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="24">
         <f t="shared" si="0"/>
         <v>43709</v>
@@ -2306,7 +2307,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="24">
         <f t="shared" si="0"/>
         <v>43739</v>
@@ -2327,7 +2328,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="24">
         <f t="shared" si="0"/>
         <v>43770</v>
@@ -2348,7 +2349,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <f t="shared" si="0"/>
         <v>43800</v>
@@ -2373,7 +2374,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="38" t="s">
         <v>50</v>
       </c>
@@ -2391,7 +2392,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24">
         <f>EDATE(A35,1)</f>
         <v>43831</v>
@@ -2412,7 +2413,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="24">
         <f t="shared" si="0"/>
         <v>43862</v>
@@ -2433,7 +2434,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24">
         <f t="shared" si="0"/>
         <v>43891</v>
@@ -2454,7 +2455,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <f t="shared" si="0"/>
         <v>43922</v>
@@ -2475,7 +2476,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24">
         <f t="shared" si="0"/>
         <v>43952</v>
@@ -2496,7 +2497,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <f t="shared" si="0"/>
         <v>43983</v>
@@ -2517,7 +2518,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="24">
         <f t="shared" si="0"/>
         <v>44013</v>
@@ -2538,7 +2539,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="24">
         <f t="shared" si="0"/>
         <v>44044</v>
@@ -2559,7 +2560,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="24">
         <f t="shared" si="0"/>
         <v>44075</v>
@@ -2580,7 +2581,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="24">
         <f t="shared" si="0"/>
         <v>44105</v>
@@ -2601,7 +2602,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="24">
         <f t="shared" si="0"/>
         <v>44136</v>
@@ -2622,7 +2623,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="24">
         <f t="shared" si="0"/>
         <v>44166</v>
@@ -2647,7 +2648,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="38" t="s">
         <v>49</v>
       </c>
@@ -2665,7 +2666,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="24">
         <f>EDATE(A48,1)</f>
         <v>44197</v>
@@ -2686,7 +2687,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="24">
         <f t="shared" si="0"/>
         <v>44228</v>
@@ -2707,7 +2708,7 @@
       <c r="J51" s="13"/>
       <c r="K51" s="16"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="24">
         <f t="shared" si="0"/>
         <v>44256</v>
@@ -2728,7 +2729,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="24">
         <f t="shared" si="0"/>
         <v>44287</v>
@@ -2749,7 +2750,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="24">
         <f t="shared" si="0"/>
         <v>44317</v>
@@ -2770,7 +2771,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="24">
         <f t="shared" si="0"/>
         <v>44348</v>
@@ -2791,7 +2792,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="24">
         <f t="shared" si="0"/>
         <v>44378</v>
@@ -2812,7 +2813,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="24">
         <f t="shared" si="0"/>
         <v>44409</v>
@@ -2833,7 +2834,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="24">
         <f t="shared" si="0"/>
         <v>44440</v>
@@ -2854,7 +2855,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="24">
         <f t="shared" si="0"/>
         <v>44470</v>
@@ -2875,7 +2876,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="24">
         <f t="shared" si="0"/>
         <v>44501</v>
@@ -2896,7 +2897,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="24">
         <f t="shared" si="0"/>
         <v>44531</v>
@@ -2921,7 +2922,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="38" t="s">
         <v>43</v>
       </c>
@@ -2936,7 +2937,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="39"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
         <v>44562</v>
       </c>
@@ -2956,7 +2957,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="24">
         <v>44593</v>
       </c>
@@ -2976,7 +2977,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="24">
         <v>44621</v>
       </c>
@@ -2996,7 +2997,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="24">
         <v>44652</v>
       </c>
@@ -3016,7 +3017,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="24">
         <v>44682</v>
       </c>
@@ -3036,7 +3037,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="24">
         <v>44713</v>
       </c>
@@ -3056,7 +3057,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="24">
         <v>44743</v>
       </c>
@@ -3076,7 +3077,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="24">
         <v>44774</v>
       </c>
@@ -3096,7 +3097,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="39"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="24">
         <v>44805</v>
       </c>
@@ -3116,7 +3117,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="21"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="24">
         <v>44835</v>
       </c>
@@ -3136,7 +3137,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="39"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="24">
         <v>44866</v>
       </c>
@@ -3156,7 +3157,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="39"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="24">
         <v>44896</v>
       </c>
@@ -3182,7 +3183,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="38" t="s">
         <v>47</v>
       </c>
@@ -3200,7 +3201,7 @@
       <c r="J75" s="12"/>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="24">
         <v>44927</v>
       </c>
@@ -3224,7 +3225,7 @@
         <v>44952</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="24">
         <v>44958</v>
       </c>
@@ -3244,7 +3245,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="24">
         <v>44986</v>
       </c>
@@ -3264,7 +3265,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="24">
         <v>45017</v>
       </c>
@@ -3284,7 +3285,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="24">
         <v>45047</v>
       </c>
@@ -3308,7 +3309,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="24">
         <v>45078</v>
       </c>
@@ -3328,7 +3329,7 @@
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="24">
         <v>45108</v>
       </c>
@@ -3348,7 +3349,7 @@
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="47">
         <v>45139</v>
       </c>
@@ -3368,7 +3369,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="47">
         <v>45170</v>
       </c>
@@ -3388,7 +3389,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="47">
         <v>45200</v>
       </c>
@@ -3414,7 +3415,7 @@
         <v>45212</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="47"/>
       <c r="B86" s="21" t="s">
         <v>44</v>
@@ -3436,7 +3437,7 @@
         <v>45230</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="47">
         <v>45231</v>
       </c>
@@ -3462,7 +3463,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="47">
         <v>45261</v>
       </c>
@@ -3482,7 +3483,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="38" t="s">
         <v>87</v>
       </c>
@@ -3500,22 +3501,24 @@
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="47">
         <v>45292</v>
       </c>
       <c r="B90" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C90" s="14"/>
+      <c r="C90" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="48">
         <v>3</v>
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="21"/>
-      <c r="G90" s="14" t="str">
-        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="14">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="48"/>
       <c r="I90" s="9"/>
@@ -3524,7 +3527,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="47"/>
       <c r="B91" s="21" t="s">
         <v>56</v>
@@ -3546,11 +3549,11 @@
         <v>102</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="47">
-        <v>45323</v>
-      </c>
-      <c r="B92" s="21"/>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="47"/>
+      <c r="B92" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="C92" s="14"/>
       <c r="D92" s="48"/>
       <c r="E92" s="9"/>
@@ -3562,11 +3565,13 @@
       <c r="H92" s="48"/>
       <c r="I92" s="9"/>
       <c r="J92" s="12"/>
-      <c r="K92" s="21"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K92" s="39">
+        <v>45329</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="47">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B93" s="21"/>
       <c r="C93" s="14"/>
@@ -3582,9 +3587,9 @@
       <c r="J93" s="12"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="47">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B94" s="21"/>
       <c r="C94" s="14"/>
@@ -3600,9 +3605,9 @@
       <c r="J94" s="12"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="47">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B95" s="21"/>
       <c r="C95" s="14"/>
@@ -3618,9 +3623,9 @@
       <c r="J95" s="12"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="47">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B96" s="21"/>
       <c r="C96" s="14"/>
@@ -3636,9 +3641,9 @@
       <c r="J96" s="12"/>
       <c r="K96" s="21"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="47">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B97" s="21"/>
       <c r="C97" s="14"/>
@@ -3654,9 +3659,9 @@
       <c r="J97" s="12"/>
       <c r="K97" s="21"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="47">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B98" s="21"/>
       <c r="C98" s="14"/>
@@ -3672,9 +3677,9 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="47">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B99" s="21"/>
       <c r="C99" s="14"/>
@@ -3690,9 +3695,9 @@
       <c r="J99" s="12"/>
       <c r="K99" s="21"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="47">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B100" s="21"/>
       <c r="C100" s="14"/>
@@ -3708,9 +3713,9 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="47">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B101" s="21"/>
       <c r="C101" s="14"/>
@@ -3726,25 +3731,43 @@
       <c r="J101" s="12"/>
       <c r="K101" s="21"/>
     </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="47">
+        <v>45597</v>
+      </c>
+      <c r="B102" s="21"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="48"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="14" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H102" s="48"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="21"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3767,34 +3790,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K81"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
       <selection pane="bottomLeft" activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -3806,16 +3829,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -3824,18 +3847,18 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="57">
         <v>40756</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -3846,18 +3869,18 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -3865,7 +3888,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -3878,24 +3901,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3930,7 +3953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -3954,7 +3977,7 @@
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>48</v>
       </c>
@@ -3976,7 +3999,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>43101</v>
       </c>
@@ -4000,7 +4023,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <f>EDATE(A11,1)</f>
         <v>43132</v>
@@ -4025,7 +4048,7 @@
         <v>43150</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24"/>
       <c r="B13" s="12" t="s">
         <v>44</v>
@@ -4047,7 +4070,7 @@
         <v>43152</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <f>EDATE(A12,1)</f>
         <v>43160</v>
@@ -4072,7 +4095,7 @@
         <v>43165</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <f t="shared" ref="A15" si="0">EDATE(A14,1)</f>
         <v>43191</v>
@@ -4097,7 +4120,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="24"/>
       <c r="B16" s="12" t="s">
         <v>44</v>
@@ -4119,7 +4142,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>43282</v>
       </c>
@@ -4143,7 +4166,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>43374</v>
       </c>
@@ -4167,7 +4190,7 @@
         <v>43378</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <v>43405</v>
       </c>
@@ -4189,7 +4212,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24"/>
       <c r="B20" s="12" t="s">
         <v>44</v>
@@ -4211,7 +4234,7 @@
         <v>43423</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <v>43435</v>
       </c>
@@ -4235,7 +4258,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="24"/>
       <c r="B22" s="13" t="s">
         <v>53</v>
@@ -4254,7 +4277,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="24"/>
       <c r="B23" s="13" t="s">
         <v>56</v>
@@ -4273,7 +4296,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="24"/>
       <c r="B24" s="13" t="s">
         <v>61</v>
@@ -4295,7 +4318,7 @@
         <v>43462</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="s">
         <v>51</v>
       </c>
@@ -4313,7 +4336,7 @@
       <c r="J25" s="13"/>
       <c r="K25" s="46"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <v>43466</v>
       </c>
@@ -4337,7 +4360,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>43525</v>
       </c>
@@ -4361,7 +4384,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <v>43556</v>
       </c>
@@ -4385,7 +4408,7 @@
         <v>43579</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="24"/>
       <c r="B29" s="12" t="s">
         <v>44</v>
@@ -4407,7 +4430,7 @@
         <v>43585</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="24">
         <v>43678</v>
       </c>
@@ -4431,7 +4454,7 @@
         <v>43704</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="24">
         <v>43739</v>
       </c>
@@ -4455,7 +4478,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="24">
         <v>43770</v>
       </c>
@@ -4479,7 +4502,7 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="24">
         <v>43800</v>
       </c>
@@ -4503,7 +4526,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="38" t="s">
         <v>50</v>
       </c>
@@ -4521,7 +4544,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <v>44105</v>
       </c>
@@ -4545,7 +4568,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="24">
         <v>44166</v>
       </c>
@@ -4569,7 +4592,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="38" t="s">
         <v>49</v>
       </c>
@@ -4587,7 +4610,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="24">
         <v>44256</v>
       </c>
@@ -4611,7 +4634,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24">
         <v>44348</v>
       </c>
@@ -4635,7 +4658,7 @@
         <v>44371</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <v>44501</v>
       </c>
@@ -4659,7 +4682,7 @@
         <v>44518</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24"/>
       <c r="B41" s="12" t="s">
         <v>46</v>
@@ -4679,7 +4702,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="24"/>
       <c r="B42" s="12" t="s">
         <v>67</v>
@@ -4701,7 +4724,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="38" t="s">
         <v>43</v>
       </c>
@@ -4716,7 +4739,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="39"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="24">
         <v>44621</v>
       </c>
@@ -4740,7 +4763,7 @@
         <v>44650</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="24"/>
       <c r="B45" s="21" t="s">
         <v>97</v>
@@ -4760,7 +4783,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="39"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="24">
         <v>44652</v>
       </c>
@@ -4782,7 +4805,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="39"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="24">
         <v>45047</v>
       </c>
@@ -4806,7 +4829,7 @@
         <v>44687</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="24"/>
       <c r="B48" s="21" t="s">
         <v>95</v>
@@ -4826,7 +4849,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="39"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="24">
         <v>44713</v>
       </c>
@@ -4850,7 +4873,7 @@
         <v>44732</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="24"/>
       <c r="B50" s="21" t="s">
         <v>94</v>
@@ -4870,7 +4893,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="39"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="24">
         <v>44743</v>
       </c>
@@ -4892,7 +4915,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="39"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="24">
         <v>44774</v>
       </c>
@@ -4916,7 +4939,7 @@
         <v>44805</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="24"/>
       <c r="B53" s="21" t="s">
         <v>90</v>
@@ -4936,7 +4959,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="39"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="24">
         <v>44835</v>
       </c>
@@ -4960,7 +4983,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="24"/>
       <c r="B55" s="21" t="s">
         <v>89</v>
@@ -4980,7 +5003,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="39"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="24">
         <v>44866</v>
       </c>
@@ -5002,7 +5025,7 @@
         <v>44888</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="24"/>
       <c r="B57" s="13" t="s">
         <v>44</v>
@@ -5024,7 +5047,7 @@
         <v>44868</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="24"/>
       <c r="B58" s="13" t="s">
         <v>46</v>
@@ -5044,7 +5067,7 @@
         <v>44894</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="24">
         <v>44896</v>
       </c>
@@ -5066,7 +5089,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="39"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="38" t="s">
         <v>47</v>
       </c>
@@ -5084,7 +5107,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="24">
         <v>44927</v>
       </c>
@@ -5108,7 +5131,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="24"/>
       <c r="B62" s="12" t="s">
         <v>46</v>
@@ -5128,7 +5151,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="24"/>
       <c r="B63" s="12" t="s">
         <v>44</v>
@@ -5150,7 +5173,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="24">
         <v>44986</v>
       </c>
@@ -5174,7 +5197,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="24"/>
       <c r="B65" s="12" t="s">
         <v>46</v>
@@ -5194,7 +5217,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="24">
         <v>45017</v>
       </c>
@@ -5218,7 +5241,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="24">
         <v>45047</v>
       </c>
@@ -5242,7 +5265,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="24">
         <v>45078</v>
       </c>
@@ -5266,7 +5289,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="47">
         <v>45170</v>
       </c>
@@ -5290,7 +5313,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="47"/>
       <c r="B70" s="21" t="s">
         <v>74</v>
@@ -5312,7 +5335,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="47">
         <v>45200</v>
       </c>
@@ -5336,7 +5359,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="47"/>
       <c r="B72" s="21" t="s">
         <v>53</v>
@@ -5358,7 +5381,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="47"/>
       <c r="B73" s="21" t="s">
         <v>61</v>
@@ -5380,7 +5403,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="47"/>
       <c r="B74" s="21" t="s">
         <v>61</v>
@@ -5402,7 +5425,7 @@
         <v>45218</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="47">
         <v>45231</v>
       </c>
@@ -5426,7 +5449,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="47">
         <v>45244</v>
       </c>
@@ -5450,7 +5473,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="47"/>
       <c r="B77" s="21" t="s">
         <v>63</v>
@@ -5472,7 +5495,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="47"/>
       <c r="B78" s="21"/>
       <c r="C78" s="14"/>
@@ -5488,7 +5511,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="47"/>
       <c r="B79" s="21"/>
       <c r="C79" s="14"/>
@@ -5504,7 +5527,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="47"/>
       <c r="B80" s="21"/>
       <c r="C80" s="14"/>
@@ -5520,7 +5543,7 @@
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="49"/>
       <c r="B81" s="16"/>
       <c r="C81" s="50"/>
@@ -5551,10 +5574,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5577,28 +5600,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="40" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="40" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -5611,7 +5634,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
@@ -5640,7 +5663,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>88.875</v>
       </c>
@@ -5668,17 +5691,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G4" s="34"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="41" t="s">
         <v>28</v>
       </c>
@@ -5699,7 +5722,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="40">
         <v>1</v>
       </c>
@@ -5726,7 +5749,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="40">
         <v>2</v>
       </c>
@@ -5752,7 +5775,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="40">
         <v>3</v>
       </c>
@@ -5778,7 +5801,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="40">
         <v>4</v>
       </c>
@@ -5804,7 +5827,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="40">
         <v>5</v>
       </c>
@@ -5830,7 +5853,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="40">
         <v>6</v>
       </c>
@@ -5856,7 +5879,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="40">
         <v>7</v>
       </c>
@@ -5882,7 +5905,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="40">
         <v>8</v>
       </c>
@@ -5908,7 +5931,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="40">
         <v>9</v>
       </c>
@@ -5928,7 +5951,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="40">
         <v>10</v>
       </c>
@@ -5948,7 +5971,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="40">
         <v>11</v>
       </c>
@@ -5968,7 +5991,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="40">
         <v>12</v>
       </c>
@@ -5989,7 +6012,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="40">
         <v>13</v>
       </c>
@@ -6010,7 +6033,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="40">
         <v>14</v>
       </c>
@@ -6031,7 +6054,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="40">
         <v>15</v>
       </c>
@@ -6052,7 +6075,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="40">
         <v>16</v>
       </c>
@@ -6073,7 +6096,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="40">
         <v>17</v>
       </c>
@@ -6094,7 +6117,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="40">
         <v>18</v>
       </c>
@@ -6115,7 +6138,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="40">
         <v>19</v>
       </c>
@@ -6136,7 +6159,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="40">
         <v>20</v>
       </c>
@@ -6157,7 +6180,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="40">
         <v>21</v>
       </c>
@@ -6178,7 +6201,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="40">
         <v>22</v>
       </c>
@@ -6199,7 +6222,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="40">
         <v>23</v>
       </c>
@@ -6220,7 +6243,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="40">
         <v>24</v>
       </c>
@@ -6241,7 +6264,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="40">
         <v>25</v>
       </c>
@@ -6262,7 +6285,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="40">
         <v>26</v>
       </c>
@@ -6283,7 +6306,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="40">
         <v>27</v>
       </c>
@@ -6304,7 +6327,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="40">
         <v>28</v>
       </c>
@@ -6325,7 +6348,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="40">
         <v>29</v>
       </c>
@@ -6346,7 +6369,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="40">
         <v>30</v>
       </c>
@@ -6367,7 +6390,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="40">
         <v>31</v>
       </c>
@@ -6388,7 +6411,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="40">
         <v>32</v>
       </c>
@@ -6397,7 +6420,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="40">
         <v>33</v>
       </c>
@@ -6406,7 +6429,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="40">
         <v>34</v>
       </c>
@@ -6415,7 +6438,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="40">
         <v>35</v>
       </c>
@@ -6424,7 +6447,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="40">
         <v>36</v>
       </c>
@@ -6433,7 +6456,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="40">
         <v>37</v>
       </c>
@@ -6442,7 +6465,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="40">
         <v>38</v>
       </c>
@@ -6451,7 +6474,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="40">
         <v>39</v>
       </c>
@@ -6460,7 +6483,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="40">
         <v>40</v>
       </c>
@@ -6469,7 +6492,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="40">
         <v>41</v>
       </c>
@@ -6478,7 +6501,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="40">
         <v>42</v>
       </c>
@@ -6487,7 +6510,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="40">
         <v>43</v>
       </c>
@@ -6496,7 +6519,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="40">
         <v>44</v>
       </c>
@@ -6505,7 +6528,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="40">
         <v>45</v>
       </c>
@@ -6514,7 +6537,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="40">
         <v>46</v>
       </c>
@@ -6523,7 +6546,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="40">
         <v>47</v>
       </c>
@@ -6532,7 +6555,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="40">
         <v>48</v>
       </c>
@@ -6541,7 +6564,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="40">
         <v>49</v>
       </c>
@@ -6550,7 +6573,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="40">
         <v>50</v>
       </c>
@@ -6559,7 +6582,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="40">
         <v>51</v>
       </c>
@@ -6568,7 +6591,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="40">
         <v>52</v>
       </c>
@@ -6577,7 +6600,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="40">
         <v>53</v>
       </c>
@@ -6586,7 +6609,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="40">
         <v>54</v>
       </c>
@@ -6595,7 +6618,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="40">
         <v>55</v>
       </c>
@@ -6604,7 +6627,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="40">
         <v>56</v>
       </c>
@@ -6613,7 +6636,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="40">
         <v>57</v>
       </c>
@@ -6622,7 +6645,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="40">
         <v>58</v>
       </c>
@@ -6631,7 +6654,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="40">
         <v>59</v>
       </c>
@@ -6640,7 +6663,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="40">
         <v>60</v>
       </c>
@@ -6649,7 +6672,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/CASUAL/LA DSWD-CCR/OCAMPO, NOVELYN URAM.xlsx
+++ b/CASUAL/LA DSWD-CCR/OCAMPO, NOVELYN URAM.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA DSWD-CCR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA DSWD-CCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFD7784-3B03-4ED1-925E-AEC338837391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="5" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="104">
   <si>
     <t>PERIOD</t>
   </si>
@@ -346,12 +345,15 @@
   </si>
   <si>
     <t>1/11,16,17/2024</t>
+  </si>
+  <si>
+    <t>02/01,02/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -736,17 +738,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -756,6 +755,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1267,7 +1269,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1284,25 +1286,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table14" displayName="Table14" ref="A8:K102" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A8:K102" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table14[EARNED])-SUM(Table14[Absence Undertime W/ Pay])+#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table14[[EARNED ]])-SUM(Table14[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1314,25 +1316,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K81" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K81" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1639,33 +1641,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A85" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E93" sqref="E93"/>
+      <pane ySplit="3690" topLeftCell="A85" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1677,16 +1679,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1695,18 +1697,18 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="56">
         <v>40756</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1717,16 +1719,16 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1734,7 +1736,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -1747,24 +1749,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1799,7 +1801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1818,12 +1820,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table14[[EARNED ]])-SUM(Table14[Absence Undertime  W/ Pay])</f>
-        <v>84.25</v>
+        <v>82.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>48</v>
       </c>
@@ -1845,7 +1847,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>43101</v>
       </c>
@@ -1865,7 +1867,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <f>EDATE(A11,1)</f>
         <v>43132</v>
@@ -1886,7 +1888,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <f t="shared" ref="A13:A61" si="0">EDATE(A12,1)</f>
         <v>43160</v>
@@ -1907,7 +1909,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <f t="shared" si="0"/>
         <v>43191</v>
@@ -1928,7 +1930,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <f t="shared" si="0"/>
         <v>43221</v>
@@ -1949,7 +1951,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <f t="shared" si="0"/>
         <v>43252</v>
@@ -1970,7 +1972,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <f t="shared" si="0"/>
         <v>43282</v>
@@ -1991,7 +1993,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <f t="shared" si="0"/>
         <v>43313</v>
@@ -2012,7 +2014,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="39"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <f t="shared" si="0"/>
         <v>43344</v>
@@ -2033,7 +2035,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <f t="shared" si="0"/>
         <v>43374</v>
@@ -2054,7 +2056,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <f t="shared" si="0"/>
         <v>43405</v>
@@ -2075,7 +2077,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="39"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <f t="shared" si="0"/>
         <v>43435</v>
@@ -2100,7 +2102,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="39"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
         <v>51</v>
       </c>
@@ -2118,7 +2120,7 @@
       <c r="J23" s="13"/>
       <c r="K23" s="46"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <f>EDATE(A22,1)</f>
         <v>43466</v>
@@ -2139,7 +2141,7 @@
       <c r="J24" s="13"/>
       <c r="K24" s="46"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <f t="shared" si="0"/>
         <v>43497</v>
@@ -2160,7 +2162,7 @@
       <c r="J25" s="13"/>
       <c r="K25" s="46"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <f t="shared" si="0"/>
         <v>43525</v>
@@ -2181,7 +2183,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <f t="shared" si="0"/>
         <v>43556</v>
@@ -2202,7 +2204,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <f t="shared" si="0"/>
         <v>43586</v>
@@ -2223,7 +2225,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <f t="shared" si="0"/>
         <v>43617</v>
@@ -2244,7 +2246,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <f t="shared" si="0"/>
         <v>43647</v>
@@ -2265,7 +2267,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <f t="shared" si="0"/>
         <v>43678</v>
@@ -2286,7 +2288,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <f t="shared" si="0"/>
         <v>43709</v>
@@ -2307,7 +2309,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <f t="shared" si="0"/>
         <v>43739</v>
@@ -2328,7 +2330,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <f t="shared" si="0"/>
         <v>43770</v>
@@ -2349,7 +2351,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <f t="shared" si="0"/>
         <v>43800</v>
@@ -2374,7 +2376,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="38" t="s">
         <v>50</v>
       </c>
@@ -2392,7 +2394,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <f>EDATE(A35,1)</f>
         <v>43831</v>
@@ -2413,7 +2415,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <f t="shared" si="0"/>
         <v>43862</v>
@@ -2434,7 +2436,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <f t="shared" si="0"/>
         <v>43891</v>
@@ -2455,7 +2457,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <f t="shared" si="0"/>
         <v>43922</v>
@@ -2476,7 +2478,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <f t="shared" si="0"/>
         <v>43952</v>
@@ -2497,7 +2499,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <f t="shared" si="0"/>
         <v>43983</v>
@@ -2518,7 +2520,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <f t="shared" si="0"/>
         <v>44013</v>
@@ -2539,7 +2541,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <f t="shared" si="0"/>
         <v>44044</v>
@@ -2560,7 +2562,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <f t="shared" si="0"/>
         <v>44075</v>
@@ -2581,7 +2583,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <f t="shared" si="0"/>
         <v>44105</v>
@@ -2602,7 +2604,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <f t="shared" si="0"/>
         <v>44136</v>
@@ -2623,7 +2625,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <f t="shared" si="0"/>
         <v>44166</v>
@@ -2648,7 +2650,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
         <v>49</v>
       </c>
@@ -2666,7 +2668,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <f>EDATE(A48,1)</f>
         <v>44197</v>
@@ -2687,7 +2689,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <f t="shared" si="0"/>
         <v>44228</v>
@@ -2708,7 +2710,7 @@
       <c r="J51" s="13"/>
       <c r="K51" s="16"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <f t="shared" si="0"/>
         <v>44256</v>
@@ -2729,7 +2731,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <f t="shared" si="0"/>
         <v>44287</v>
@@ -2750,7 +2752,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <f t="shared" si="0"/>
         <v>44317</v>
@@ -2771,7 +2773,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <f t="shared" si="0"/>
         <v>44348</v>
@@ -2792,7 +2794,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <f t="shared" si="0"/>
         <v>44378</v>
@@ -2813,7 +2815,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <f t="shared" si="0"/>
         <v>44409</v>
@@ -2834,7 +2836,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <f t="shared" si="0"/>
         <v>44440</v>
@@ -2855,7 +2857,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <f t="shared" si="0"/>
         <v>44470</v>
@@ -2876,7 +2878,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <f t="shared" si="0"/>
         <v>44501</v>
@@ -2897,7 +2899,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <f t="shared" si="0"/>
         <v>44531</v>
@@ -2922,7 +2924,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="38" t="s">
         <v>43</v>
       </c>
@@ -2937,7 +2939,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="39"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="24">
         <v>44562</v>
       </c>
@@ -2957,7 +2959,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
         <v>44593</v>
       </c>
@@ -2977,7 +2979,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="24">
         <v>44621</v>
       </c>
@@ -2997,7 +2999,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="24">
         <v>44652</v>
       </c>
@@ -3017,7 +3019,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
         <v>44682</v>
       </c>
@@ -3037,7 +3039,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
         <v>44713</v>
       </c>
@@ -3057,7 +3059,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <v>44743</v>
       </c>
@@ -3077,7 +3079,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="24">
         <v>44774</v>
       </c>
@@ -3097,7 +3099,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="39"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="24">
         <v>44805</v>
       </c>
@@ -3117,7 +3119,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="21"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="24">
         <v>44835</v>
       </c>
@@ -3137,7 +3139,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="39"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
         <v>44866</v>
       </c>
@@ -3157,7 +3159,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="39"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="24">
         <v>44896</v>
       </c>
@@ -3183,7 +3185,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
         <v>47</v>
       </c>
@@ -3201,7 +3203,7 @@
       <c r="J75" s="12"/>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="24">
         <v>44927</v>
       </c>
@@ -3225,7 +3227,7 @@
         <v>44952</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
         <v>44958</v>
       </c>
@@ -3245,7 +3247,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="24">
         <v>44986</v>
       </c>
@@ -3265,7 +3267,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="24">
         <v>45017</v>
       </c>
@@ -3285,7 +3287,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="24">
         <v>45047</v>
       </c>
@@ -3309,7 +3311,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
         <v>45078</v>
       </c>
@@ -3329,7 +3331,7 @@
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="24">
         <v>45108</v>
       </c>
@@ -3349,7 +3351,7 @@
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="47">
         <v>45139</v>
       </c>
@@ -3369,7 +3371,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="47">
         <v>45170</v>
       </c>
@@ -3389,7 +3391,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="47">
         <v>45200</v>
       </c>
@@ -3415,7 +3417,7 @@
         <v>45212</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="47"/>
       <c r="B86" s="21" t="s">
         <v>44</v>
@@ -3437,7 +3439,7 @@
         <v>45230</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="47">
         <v>45231</v>
       </c>
@@ -3463,7 +3465,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="47">
         <v>45261</v>
       </c>
@@ -3483,7 +3485,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
         <v>87</v>
       </c>
@@ -3501,7 +3503,7 @@
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="47">
         <v>45292</v>
       </c>
@@ -3527,7 +3529,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="47"/>
       <c r="B91" s="21" t="s">
         <v>56</v>
@@ -3549,7 +3551,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="47"/>
       <c r="B92" s="21" t="s">
         <v>46</v>
@@ -3569,11 +3571,13 @@
         <v>45329</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="47">
         <v>45323</v>
       </c>
-      <c r="B93" s="21"/>
+      <c r="B93" s="21" t="s">
+        <v>53</v>
+      </c>
       <c r="C93" s="14"/>
       <c r="D93" s="48"/>
       <c r="E93" s="9"/>
@@ -3582,12 +3586,16 @@
         <f>IF(ISBLANK(Table14[[#This Row],[EARNED]]),"",Table14[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H93" s="48"/>
+      <c r="H93" s="48">
+        <v>2</v>
+      </c>
       <c r="I93" s="9"/>
       <c r="J93" s="12"/>
-      <c r="K93" s="21"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="47">
         <v>45352</v>
       </c>
@@ -3605,7 +3613,7 @@
       <c r="J94" s="12"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="47">
         <v>45383</v>
       </c>
@@ -3623,7 +3631,7 @@
       <c r="J95" s="12"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="47">
         <v>45413</v>
       </c>
@@ -3641,7 +3649,7 @@
       <c r="J96" s="12"/>
       <c r="K96" s="21"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="47">
         <v>45444</v>
       </c>
@@ -3659,7 +3667,7 @@
       <c r="J97" s="12"/>
       <c r="K97" s="21"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="47">
         <v>45474</v>
       </c>
@@ -3677,7 +3685,7 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="47">
         <v>45505</v>
       </c>
@@ -3695,7 +3703,7 @@
       <c r="J99" s="12"/>
       <c r="K99" s="21"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="47">
         <v>45536</v>
       </c>
@@ -3713,7 +3721,7 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="47">
         <v>45566</v>
       </c>
@@ -3731,7 +3739,7 @@
       <c r="J101" s="12"/>
       <c r="K101" s="21"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="47">
         <v>45597</v>
       </c>
@@ -3751,23 +3759,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3790,34 +3798,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K81"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A70" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
       <selection pane="bottomLeft" activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -3829,16 +3837,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -3847,18 +3855,18 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="56">
         <v>40756</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -3869,18 +3877,18 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -3888,7 +3896,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -3901,24 +3909,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3953,7 +3961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -3977,7 +3985,7 @@
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>48</v>
       </c>
@@ -3999,7 +4007,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>43101</v>
       </c>
@@ -4023,7 +4031,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <f>EDATE(A11,1)</f>
         <v>43132</v>
@@ -4048,7 +4056,7 @@
         <v>43150</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="12" t="s">
         <v>44</v>
@@ -4070,7 +4078,7 @@
         <v>43152</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <f>EDATE(A12,1)</f>
         <v>43160</v>
@@ -4095,7 +4103,7 @@
         <v>43165</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <f t="shared" ref="A15" si="0">EDATE(A14,1)</f>
         <v>43191</v>
@@ -4120,7 +4128,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="12" t="s">
         <v>44</v>
@@ -4142,7 +4150,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>43282</v>
       </c>
@@ -4166,7 +4174,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>43374</v>
       </c>
@@ -4190,7 +4198,7 @@
         <v>43378</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>43405</v>
       </c>
@@ -4212,7 +4220,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="12" t="s">
         <v>44</v>
@@ -4234,7 +4242,7 @@
         <v>43423</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>43435</v>
       </c>
@@ -4258,7 +4266,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="13" t="s">
         <v>53</v>
@@ -4277,7 +4285,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
       <c r="B23" s="13" t="s">
         <v>56</v>
@@ -4296,7 +4304,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="13" t="s">
         <v>61</v>
@@ -4318,7 +4326,7 @@
         <v>43462</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="38" t="s">
         <v>51</v>
       </c>
@@ -4336,7 +4344,7 @@
       <c r="J25" s="13"/>
       <c r="K25" s="46"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>43466</v>
       </c>
@@ -4360,7 +4368,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>43525</v>
       </c>
@@ -4384,7 +4392,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>43556</v>
       </c>
@@ -4408,7 +4416,7 @@
         <v>43579</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="12" t="s">
         <v>44</v>
@@ -4430,7 +4438,7 @@
         <v>43585</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>43678</v>
       </c>
@@ -4454,7 +4462,7 @@
         <v>43704</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>43739</v>
       </c>
@@ -4478,7 +4486,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>43770</v>
       </c>
@@ -4502,7 +4510,7 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>43800</v>
       </c>
@@ -4526,7 +4534,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="38" t="s">
         <v>50</v>
       </c>
@@ -4544,7 +4552,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>44105</v>
       </c>
@@ -4568,7 +4576,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
         <v>44166</v>
       </c>
@@ -4592,7 +4600,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
         <v>49</v>
       </c>
@@ -4610,7 +4618,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <v>44256</v>
       </c>
@@ -4634,7 +4642,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>44348</v>
       </c>
@@ -4658,7 +4666,7 @@
         <v>44371</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>44501</v>
       </c>
@@ -4682,7 +4690,7 @@
         <v>44518</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24"/>
       <c r="B41" s="12" t="s">
         <v>46</v>
@@ -4702,7 +4710,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24"/>
       <c r="B42" s="12" t="s">
         <v>67</v>
@@ -4724,7 +4732,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="38" t="s">
         <v>43</v>
       </c>
@@ -4739,7 +4747,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="39"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>44621</v>
       </c>
@@ -4763,7 +4771,7 @@
         <v>44650</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
       <c r="B45" s="21" t="s">
         <v>97</v>
@@ -4783,7 +4791,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="39"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <v>44652</v>
       </c>
@@ -4805,7 +4813,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="39"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>45047</v>
       </c>
@@ -4829,7 +4837,7 @@
         <v>44687</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="24"/>
       <c r="B48" s="21" t="s">
         <v>95</v>
@@ -4849,7 +4857,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="39"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
         <v>44713</v>
       </c>
@@ -4873,7 +4881,7 @@
         <v>44732</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="24"/>
       <c r="B50" s="21" t="s">
         <v>94</v>
@@ -4893,7 +4901,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="39"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>44743</v>
       </c>
@@ -4915,7 +4923,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="39"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>44774</v>
       </c>
@@ -4939,7 +4947,7 @@
         <v>44805</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
       <c r="B53" s="21" t="s">
         <v>90</v>
@@ -4959,7 +4967,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="39"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <v>44835</v>
       </c>
@@ -4983,7 +4991,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24"/>
       <c r="B55" s="21" t="s">
         <v>89</v>
@@ -5003,7 +5011,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="39"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <v>44866</v>
       </c>
@@ -5025,7 +5033,7 @@
         <v>44888</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
       <c r="B57" s="13" t="s">
         <v>44</v>
@@ -5047,7 +5055,7 @@
         <v>44868</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
       <c r="B58" s="13" t="s">
         <v>46</v>
@@ -5067,7 +5075,7 @@
         <v>44894</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>44896</v>
       </c>
@@ -5089,7 +5097,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="39"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="38" t="s">
         <v>47</v>
       </c>
@@ -5107,7 +5115,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <v>44927</v>
       </c>
@@ -5131,7 +5139,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
       <c r="B62" s="12" t="s">
         <v>46</v>
@@ -5151,7 +5159,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
       <c r="B63" s="12" t="s">
         <v>44</v>
@@ -5173,7 +5181,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
         <v>44986</v>
       </c>
@@ -5197,7 +5205,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="24"/>
       <c r="B65" s="12" t="s">
         <v>46</v>
@@ -5217,7 +5225,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="24">
         <v>45017</v>
       </c>
@@ -5241,7 +5249,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
         <v>45047</v>
       </c>
@@ -5265,7 +5273,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
         <v>45078</v>
       </c>
@@ -5289,7 +5297,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="47">
         <v>45170</v>
       </c>
@@ -5313,7 +5321,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="47"/>
       <c r="B70" s="21" t="s">
         <v>74</v>
@@ -5335,7 +5343,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="47">
         <v>45200</v>
       </c>
@@ -5359,7 +5367,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="47"/>
       <c r="B72" s="21" t="s">
         <v>53</v>
@@ -5381,7 +5389,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="47"/>
       <c r="B73" s="21" t="s">
         <v>61</v>
@@ -5403,7 +5411,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="47"/>
       <c r="B74" s="21" t="s">
         <v>61</v>
@@ -5425,7 +5433,7 @@
         <v>45218</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="47">
         <v>45231</v>
       </c>
@@ -5449,7 +5457,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="47">
         <v>45244</v>
       </c>
@@ -5473,7 +5481,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="47"/>
       <c r="B77" s="21" t="s">
         <v>63</v>
@@ -5495,7 +5503,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="47"/>
       <c r="B78" s="21"/>
       <c r="C78" s="14"/>
@@ -5511,7 +5519,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="47"/>
       <c r="B79" s="21"/>
       <c r="C79" s="14"/>
@@ -5527,7 +5535,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="47"/>
       <c r="B80" s="21"/>
       <c r="C80" s="14"/>
@@ -5543,7 +5551,7 @@
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="49"/>
       <c r="B81" s="16"/>
       <c r="C81" s="50"/>
@@ -5574,10 +5582,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5600,28 +5608,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="40" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="40" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -5634,7 +5642,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
@@ -5663,7 +5671,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>88.875</v>
       </c>
@@ -5691,17 +5699,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4" s="34"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="41" t="s">
         <v>28</v>
       </c>
@@ -5722,7 +5730,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="40">
         <v>1</v>
       </c>
@@ -5749,7 +5757,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="40">
         <v>2</v>
       </c>
@@ -5775,7 +5783,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="40">
         <v>3</v>
       </c>
@@ -5801,7 +5809,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="40">
         <v>4</v>
       </c>
@@ -5827,7 +5835,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="40">
         <v>5</v>
       </c>
@@ -5853,7 +5861,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="40">
         <v>6</v>
       </c>
@@ -5879,7 +5887,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="40">
         <v>7</v>
       </c>
@@ -5905,7 +5913,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="40">
         <v>8</v>
       </c>
@@ -5931,7 +5939,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="40">
         <v>9</v>
       </c>
@@ -5951,7 +5959,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="40">
         <v>10</v>
       </c>
@@ -5971,7 +5979,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="40">
         <v>11</v>
       </c>
@@ -5991,7 +5999,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="40">
         <v>12</v>
       </c>
@@ -6012,7 +6020,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="40">
         <v>13</v>
       </c>
@@ -6033,7 +6041,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="40">
         <v>14</v>
       </c>
@@ -6054,7 +6062,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="40">
         <v>15</v>
       </c>
@@ -6075,7 +6083,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="40">
         <v>16</v>
       </c>
@@ -6096,7 +6104,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="40">
         <v>17</v>
       </c>
@@ -6117,7 +6125,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="40">
         <v>18</v>
       </c>
@@ -6138,7 +6146,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="40">
         <v>19</v>
       </c>
@@ -6159,7 +6167,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="40">
         <v>20</v>
       </c>
@@ -6180,7 +6188,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="40">
         <v>21</v>
       </c>
@@ -6201,7 +6209,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="40">
         <v>22</v>
       </c>
@@ -6222,7 +6230,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="40">
         <v>23</v>
       </c>
@@ -6243,7 +6251,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="40">
         <v>24</v>
       </c>
@@ -6264,7 +6272,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="40">
         <v>25</v>
       </c>
@@ -6285,7 +6293,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="40">
         <v>26</v>
       </c>
@@ -6306,7 +6314,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="40">
         <v>27</v>
       </c>
@@ -6327,7 +6335,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="40">
         <v>28</v>
       </c>
@@ -6348,7 +6356,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="40">
         <v>29</v>
       </c>
@@ -6369,7 +6377,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="40">
         <v>30</v>
       </c>
@@ -6390,7 +6398,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="40">
         <v>31</v>
       </c>
@@ -6411,7 +6419,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="40">
         <v>32</v>
       </c>
@@ -6420,7 +6428,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="40">
         <v>33</v>
       </c>
@@ -6429,7 +6437,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="40">
         <v>34</v>
       </c>
@@ -6438,7 +6446,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="40">
         <v>35</v>
       </c>
@@ -6447,7 +6455,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="40">
         <v>36</v>
       </c>
@@ -6456,7 +6464,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="40">
         <v>37</v>
       </c>
@@ -6465,7 +6473,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="40">
         <v>38</v>
       </c>
@@ -6474,7 +6482,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="40">
         <v>39</v>
       </c>
@@ -6483,7 +6491,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="40">
         <v>40</v>
       </c>
@@ -6492,7 +6500,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="40">
         <v>41</v>
       </c>
@@ -6501,7 +6509,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="40">
         <v>42</v>
       </c>
@@ -6510,7 +6518,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="40">
         <v>43</v>
       </c>
@@ -6519,7 +6527,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="40">
         <v>44</v>
       </c>
@@ -6528,7 +6536,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="40">
         <v>45</v>
       </c>
@@ -6537,7 +6545,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="40">
         <v>46</v>
       </c>
@@ -6546,7 +6554,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="40">
         <v>47</v>
       </c>
@@ -6555,7 +6563,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="40">
         <v>48</v>
       </c>
@@ -6564,7 +6572,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="40">
         <v>49</v>
       </c>
@@ -6573,7 +6581,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="40">
         <v>50</v>
       </c>
@@ -6582,7 +6590,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="40">
         <v>51</v>
       </c>
@@ -6591,7 +6599,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="40">
         <v>52</v>
       </c>
@@ -6600,7 +6608,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="40">
         <v>53</v>
       </c>
@@ -6609,7 +6617,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="40">
         <v>54</v>
       </c>
@@ -6618,7 +6626,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="40">
         <v>55</v>
       </c>
@@ -6627,7 +6635,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="40">
         <v>56</v>
       </c>
@@ -6636,7 +6644,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="40">
         <v>57</v>
       </c>
@@ -6645,7 +6653,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="40">
         <v>58</v>
       </c>
@@ -6654,7 +6662,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="40">
         <v>59</v>
       </c>
@@ -6663,7 +6671,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="40">
         <v>60</v>
       </c>
@@ -6672,7 +6680,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
